--- a/DemoIssue.xlsx
+++ b/DemoIssue.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="KwidDemo_DEV" sheetId="1" r:id="rId1"/>
-    <sheet name="summary" sheetId="2" r:id="rId2"/>
+    <sheet name="KwidDemo_UAT" sheetId="3" r:id="rId2"/>
+    <sheet name="summary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
   <si>
     <t>Dealer is already logged in.</t>
   </si>
@@ -189,9 +190,6 @@
     <t xml:space="preserve">Fail </t>
   </si>
   <si>
-    <t>Agreement</t>
-  </si>
-  <si>
     <t>Lead Dev: Alok Srivastava</t>
   </si>
   <si>
@@ -199,13 +197,60 @@
   </si>
   <si>
     <t>Agreement(KwidDemo)</t>
+  </si>
+  <si>
+    <t>13.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vin :MEEBBA00XK9691321                       Argreement No:RIP249217 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closeley check the start and end date of Warranty in the admin and dealer portal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After creating an agreement , Standard warranty start date, and Standard warranty end date is appearing same as the middleware                                     Vin :MEEBBA00XK9691321                       Argreement No:RIP249217                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify Std Warranty in Years for created agreement  No:RIP249217
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vin :MEEBBA004K9691167                       Argreement No:RIP249218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After creating an agreement , Standard warranty start date, and Standard warranty end date is appearing same as the middleware                                     Vin :MEEBBA004K9691167                       Argreement No:RIP249218                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vin :MEEBBA005K9691159                       Argreement No:RIP249219 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After creating an agreement , Standard warranty start date, and Standard warranty end date is appearing same as the middleware                                     Vin :MEEBBA005K9691159                 Argreement No:RIP249219                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>Agreement_TC_6</t>
+  </si>
+  <si>
+    <t>Agreement_TC_7</t>
+  </si>
+  <si>
+    <t>Agreement_TC_8</t>
+  </si>
+  <si>
+    <t>Agreement_TC_9</t>
+  </si>
+  <si>
+    <t>Agreement_DEV</t>
+  </si>
+  <si>
+    <t>Agreement_UAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +331,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -364,24 +415,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -408,6 +444,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,29 +490,26 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +794,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A6" sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,306 +810,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>12981</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="5">
         <v>12981</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="K7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="5">
         <v>12981</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="15" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="K8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="5">
         <v>12981</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="K9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>12981</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1062,10 +1134,525 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="34">
+        <v>12991</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://prnt.sc/teidwa"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,71 +1664,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="13">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D6" s="17">
         <v>4</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="24">
-        <v>4</v>
-      </c>
-      <c r="C5" s="24">
-        <v>4</v>
-      </c>
-      <c r="D5" s="25">
-        <v>4</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
     </row>
